--- a/电子签约平台/流程梳理/1-需求描述.xlsx
+++ b/电子签约平台/流程梳理/1-需求描述.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="整体需求" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>系统需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,316 @@
         <charset val="134"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给客户调用实现业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给客户管理平台</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给超级管理平台</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加入平台的客户可以进行日常管理功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加入平台的客户可以在线进行证书和签章等业务操作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户可以在该平台进行注册接入该平台</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持汇总数据的查询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持客户管理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持日志查询等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加入平台的客户可以进行在线开发接口调试等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供测试和生产环境的在线调试功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供各个语言版本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sdk</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持各种参数的设定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具体功能可以参照上上签提供的一些功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供相关开发文档</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -615,27 +925,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -643,14 +1013,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/电子签约平台/流程梳理/1-需求描述.xlsx
+++ b/电子签约平台/流程梳理/1-需求描述.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="整体需求" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>系统需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持汇总数据的查询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>2.</t>
     </r>
     <r>
@@ -34,7 +50,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>保证证书、合同等的数据传输和保存的安全</t>
+      <t>支持客户管理</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,39 +66,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>实现合同的管理，包括上传，下载，修改等</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实现合同电子签章</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有超级管理员系统，可以进行系统参数配置，数据统计，日志查看等</t>
+      <t>支持日志查询等</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,7 +82,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>作为一个独立的产品，对外提供</t>
+      <t>提供测试和生产环境的在线调试功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供各个语言版本的</t>
     </r>
     <r>
       <rPr>
@@ -108,17 +108,39 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，松耦合设计</t>
+      <t>sdk</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持各种参数的设定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供相关开发文档</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,23 +156,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>实现用户证书的创建管理等功能</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理界面</t>
+      <t>作为一个独立的产品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对外提供</t>
     </r>
     <r>
       <rPr>
@@ -160,17 +182,33 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客户可登陆查看管理，具备权限管理</t>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，送耦合设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具有</t>
     </r>
     <r>
       <rPr>
@@ -180,17 +218,97 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可参照上上签的系统</t>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>界面，个人和企业用户可在上面完成业务操作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业用户可以成为开发者，并且可以操作授权的证书等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本的业务包括证书申请，合同管理，印章管理，电子合同签章等功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保证系统的握手验证安全，数据传输安全</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有超级管理后台，可以实现客户汇总管理，审核，日志查看等功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供</t>
     </r>
     <r>
       <rPr>
@@ -200,23 +318,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提供</t>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给</t>
     </r>
     <r>
       <rPr>
@@ -226,23 +338,23 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给客户调用实现业务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理平台</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
@@ -272,13 +384,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>给客户管理平台</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
+      <t>给超级管理后台</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -308,151 +420,39 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>给超级管理平台</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加入平台的客户可以进行日常管理功能</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加入平台的客户可以在线进行证书和签章等业务操作</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客户可以在该平台进行注册接入该平台</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持汇总数据的查询</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持客户管理</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持日志查询等</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加入平台的客户可以进行在线开发接口调试等</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提供测试和生产环境的在线调试功能</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提供各个语言版本的</t>
+      <t>给第三方开发者调用实现业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保证握手和数据传输安全</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人</t>
     </r>
     <r>
       <rPr>
@@ -462,7 +462,111 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>sdk</t>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业可以在该平台进行注册接入该平台</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业用户可以成为开发者，创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持各种需要审核的业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本身具有角色权限分配，例如客服等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业客户可以授权给第三方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这样第三方开发者可以用企业客户的印章进行签章等</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,7 +582,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>支持各种参数的设定</t>
+      <t>加入平台的客户可以在线进行证书和签章等业务操作</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,17 +604,17 @@
   </si>
   <si>
     <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提供相关开发文档</t>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发者可以在线进行接口调试</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -868,7 +972,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -883,37 +987,37 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -925,42 +1029,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -972,37 +1081,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1013,32 +1127,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/电子签约平台/流程梳理/1-需求描述.xlsx
+++ b/电子签约平台/流程梳理/1-需求描述.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="整体需求" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>系统需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,17 +162,17 @@
   </si>
   <si>
     <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对外提供</t>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具有</t>
     </r>
     <r>
       <rPr>
@@ -182,33 +182,81 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，送耦合设计</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>具有</t>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>界面，个人和企业用户可在上面完成业务操作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业用户可以成为开发者，并且可以操作授权的证书等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本的业务包括证书申请，合同管理，印章管理，电子合同签章等功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保证系统的握手验证安全，数据传输安全</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供</t>
     </r>
     <r>
       <rPr>
@@ -218,97 +266,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>界面，个人和企业用户可在上面完成业务操作</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>企业用户可以成为开发者，并且可以操作授权的证书等</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基本的业务包括证书申请，合同管理，印章管理，电子合同签章等功能</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保证系统的握手验证安全，数据传输安全</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有超级管理后台，可以实现客户汇总管理，审核，日志查看等功能</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提供</t>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给</t>
     </r>
     <r>
       <rPr>
@@ -318,17 +286,33 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给</t>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理平台</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供</t>
     </r>
     <r>
       <rPr>
@@ -338,23 +322,23 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理平台</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给超级管理后台</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -384,23 +368,39 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>给超级管理后台</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提供</t>
+      <t>给第三方开发者调用实现业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保证握手和数据传输安全</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人</t>
     </r>
     <r>
       <rPr>
@@ -410,49 +410,33 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给第三方开发者调用实现业务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保证握手和数据传输安全</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个人</t>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业可以在该平台进行注册接入该平台</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业用户可以成为开发者，创建</t>
     </r>
     <r>
       <rPr>
@@ -462,33 +446,55 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>企业可以在该平台进行注册接入该平台</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>企业用户可以成为开发者，创建</t>
+      <t>app</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持各种需要审核的业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本身具有角色权限分配，例如客服等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业客户可以授权给第三方</t>
     </r>
     <r>
       <rPr>
@@ -498,7 +504,33 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>app</t>
+      <t>app,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这样第三方开发者可以用企业客户的印章进行签章等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加入平台的客户可以在线进行证书和签章等业务操作</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,7 +546,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>支持各种需要审核的业务</t>
+      <t>具体功能可以参照上上签提供的一些功能</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,23 +562,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>本身具有角色权限分配，例如客服等</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>企业客户可以授权给第三方</t>
+      <t>开发者可以在线进行接口调试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有超级管理后台，可以实现客户汇总管理，审核，日志查看</t>
     </r>
     <r>
       <rPr>
@@ -556,65 +588,137 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>app,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这样第三方开发者可以用企业客户的印章进行签章等</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加入平台的客户可以在线进行证书和签章等业务操作</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>具体功能可以参照上上签提供的一些功能</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发者可以在线进行接口调试</t>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图表统计等功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对外提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，松耦合设计，提供完善的电子文档和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sdk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例子等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终合同上传到有公正资质的第三方平台</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同时支持同步和异步的模式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持合同的归类管理，归档，目录转移等功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持图表统计功能</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -992,32 +1096,32 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1029,27 +1133,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A2:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1069,7 +1173,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1081,42 +1195,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1127,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1157,12 +1276,17 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
